--- a/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Promos (PKHM).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Promos (PKHM).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Promos (PKHM).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Promos (PKHM).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Promos (PKHM).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Promos (PKHM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +442,1187 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alrund, God of the Cosmos // Hakka, Whispering Raven</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Alrund, God of the Cosmos // Hakka, Whispering Raven</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Alrund's Epiphany</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Alrund's Epiphany</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Arni Brokenbrow</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Arni Brokenbrow</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ascendant Spirit</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ascendant Spirit</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Barkchannel Pathway // Tidechannel Pathway</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Barkchannel Pathway // Tidechannel Pathway</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Battle for Bretagard</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Battle for Bretagard</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Battle Mammoth</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Battle Mammoth</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Battle of Frost and Fire</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Battle of Frost and Fire</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Birgi, God of Storytelling // Harnfel, Horn of Bounty</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Birgi, God of Storytelling // Harnfel, Horn of Bounty</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Blessing of Frost</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Blessing of Frost</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Blightstep Pathway // Searstep Pathway</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Blightstep Pathway // Searstep Pathway</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Blood on the Snow</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Blood on the Snow</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Burning-Rune Demon</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Burning-Rune Demon</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Calamity Bearer</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Calamity Bearer</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Cosima, God of the Voyage // The Omenkeel</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Cosima, God of the Voyage // The Omenkeel</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Cosmos Charger</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cosmos Charger</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Cosmos Elixir</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Cosmos Elixir</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Crippling Fear</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Crippling Fear</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Cyclone Summoner</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Cyclone Summoner</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Darkbore Pathway // Slitherbore Pathway</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Darkbore Pathway // Slitherbore Pathway</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Doomskar</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Doomskar</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Dragonkin Berserker</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Dragonkin Berserker</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Draugr Necromancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Draugr Necromancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Dream Devourer</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Dream Devourer</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Egon, God of Death // Throne of Death</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Egon, God of Death // Throne of Death</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Elvish Warmaster</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Elvish Warmaster</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Eradicator Valkyrie</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Eradicator Valkyrie</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Esika, God of the Tree // The Prismatic Bridge</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Esika, God of the Tree // The Prismatic Bridge</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Esika's Chariot</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Esika's Chariot</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Faceless Haven</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Faceless Haven</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>極悪な二人組</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Firja's Retribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Firja's Retribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Glorious Protector</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Glorious Protector</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Goldspan Dragon</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Goldspan Dragon</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Graven Lore</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Graven Lore</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Halvar, God of Battle // Sword of the Realms</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Halvar, God of Battle // Sword of the Realms</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Harald Unites the Elves</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Harald Unites the Elves</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Haunting Voyage</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Haunting Voyage</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Hengegate Pathway // Mistgate Pathway</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Hengegate Pathway // Mistgate Pathway</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Icebreaker Kraken</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Icebreaker Kraken</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Immersturm Predator</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Immersturm Predator</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>In Search of Greatness</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>In Search of Greatness</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Jorn, God of Winter // Kaldring, the Rimestaff</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Jorn, God of Winter // Kaldring, the Rimestaff</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Kaya the Inexorable</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Kaya the Inexorable</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>King Narfi's Betrayal</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>King Narfi's Betrayal</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Kolvori, God of Kinship // The Ringhart Crest</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Kolvori, God of Kinship // The Ringhart Crest</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Koma, Cosmos Serpent</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Koma, Cosmos Serpent</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Magda, Brazen Outlaw</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Magda, Brazen Outlaw</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Maskwood Nexus</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Maskwood Nexus</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Mystic Reflection</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Mystic Reflection</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Niko Aris</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Niko Aris</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Old-Growth Troll</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Old-Growth Troll</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Orvar, the All-Form</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Orvar, the All-Form</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Pyre of Heroes</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Pyre of Heroes</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Quakebringer</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Quakebringer</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Rally the Ranks</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Rally the Ranks</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Realmwalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Realmwalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Reckless Crew</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Reckless Crew</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Reflections of Littjara</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Reflections of Littjara</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Reidane, God of the Worthy // Valkmira, Protector's Shield</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Reidane, God of the Worthy // Valkmira, Protector's Shield</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Resplendent Marshal</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Resplendent Marshal</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Righteous Valkyrie</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Righteous Valkyrie</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Rise of the Dread Marn</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Rise of the Dread Marn</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Runeforge Champion</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Runeforge Champion</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Sarulf, Realm Eater</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Sarulf, Realm Eater</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Search for Glory</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Search for Glory</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Showdown of the Skalds</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Showdown of the Skalds</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Sigrid, God-Favored</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Sigrid, God-Favored</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Skemfar Avenger</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Skemfar Avenger</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Starnheim Unleashed</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Starnheim Unleashed</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Tergrid, God of Fright // Tergrid's Lantern</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Tergrid, God of Fright // Tergrid's Lantern</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>The Bears of Littjara</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>The Bears of Littjara</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>The Bloodsky Massacre</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>The Bloodsky Massacre</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>The Raven's Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>The Raven's Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>The World Tree</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>The World Tree</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Tibalt's Trickery</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Tibalt's Trickery</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Toralf, God of Fury // Toralf's Hammer</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Toralf, God of Fury // Toralf's Hammer</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Toski, Bearer of Secrets</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Toski, Bearer of Secrets</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Tundra Fumarole</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Tundra Fumarole</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Tyrite Sanctum</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Tyrite Sanctum</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Tyvar Kell</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Tyvar Kell</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Valki, God of Lies // Tibalt, Cosmic Impostor</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Valki, God of Lies // Tibalt, Cosmic Impostor</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Varragoth, Bloodsky Sire</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Varragoth, Bloodsky Sire</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Vorinclex, Monstrous Raider</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Vorinclex, Monstrous Raider</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Waking the Trolls</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Waking the Trolls</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Promos (PKHM).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Kaldheim Promos (PKHM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A170"/>
+  <dimension ref="A1:A154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alrund, God of the Cosmos // Hakka, Whispering Raven</t>
+          <t>Alrund's Epiphany</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alrund's Epiphany</t>
+          <t>Arni Brokenbrow</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Arni Brokenbrow</t>
+          <t>Ascendant Spirit</t>
         </is>
       </c>
     </row>
@@ -493,1132 +493,1020 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ascendant Spirit</t>
+          <t>Barkchannel Pathway // Tidechannel Pathway</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Barkchannel Pathway // Tidechannel Pathway</t>
+          <t>Battle for Bretagard</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Barkchannel Pathway // Tidechannel Pathway</t>
+          <t>Battle for Bretagard</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Battle for Bretagard</t>
+          <t>Battle Mammoth</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Battle for Bretagard</t>
+          <t>Battle Mammoth</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Battle Mammoth</t>
+          <t>Battle of Frost and Fire</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Battle Mammoth</t>
+          <t>Battle of Frost and Fire</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Battle of Frost and Fire</t>
+          <t>Birgi, God of Storytelling // Harnfel, Horn of Bounty</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Battle of Frost and Fire</t>
+          <t>Blessing of Frost</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Birgi, God of Storytelling // Harnfel, Horn of Bounty</t>
+          <t>Blessing of Frost</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Birgi, God of Storytelling // Harnfel, Horn of Bounty</t>
+          <t>Blightstep Pathway // Searstep Pathway</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Blessing of Frost</t>
+          <t>Blood on the Snow</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Blessing of Frost</t>
+          <t>Blood on the Snow</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Blightstep Pathway // Searstep Pathway</t>
+          <t>Burning-Rune Demon</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Blightstep Pathway // Searstep Pathway</t>
+          <t>Burning-Rune Demon</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Blood on the Snow</t>
+          <t>Calamity Bearer</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Blood on the Snow</t>
+          <t>Calamity Bearer</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Burning-Rune Demon</t>
+          <t>Cosima, God of the Voyage // The Omenkeel</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Burning-Rune Demon</t>
+          <t>Cosmos Charger</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Calamity Bearer</t>
+          <t>Cosmos Charger</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Calamity Bearer</t>
+          <t>Cosmos Elixir</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Cosima, God of the Voyage // The Omenkeel</t>
+          <t>Cosmos Elixir</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cosima, God of the Voyage // The Omenkeel</t>
+          <t>Crippling Fear</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cosmos Charger</t>
+          <t>Crippling Fear</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cosmos Charger</t>
+          <t>Cyclone Summoner</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cosmos Elixir</t>
+          <t>Cyclone Summoner</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cosmos Elixir</t>
+          <t>Darkbore Pathway // Slitherbore Pathway</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Crippling Fear</t>
+          <t>Doomskar</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Crippling Fear</t>
+          <t>Doomskar</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cyclone Summoner</t>
+          <t>Dragonkin Berserker</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Cyclone Summoner</t>
+          <t>Dragonkin Berserker</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Darkbore Pathway // Slitherbore Pathway</t>
+          <t>Draugr Necromancer</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Darkbore Pathway // Slitherbore Pathway</t>
+          <t>Draugr Necromancer</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Doomskar</t>
+          <t>Dream Devourer</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Doomskar</t>
+          <t>Dream Devourer</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Dragonkin Berserker</t>
+          <t>Egon, God of Death // Throne of Death</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Dragonkin Berserker</t>
+          <t>Elvish Warmaster</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Draugr Necromancer</t>
+          <t>Elvish Warmaster</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Draugr Necromancer</t>
+          <t>Eradicator Valkyrie</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dream Devourer</t>
+          <t>Eradicator Valkyrie</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Dream Devourer</t>
+          <t>Esika, God of the Tree // The Prismatic Bridge</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Egon, God of Death // Throne of Death</t>
+          <t>Esika's Chariot</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Egon, God of Death // Throne of Death</t>
+          <t>Esika's Chariot</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Elvish Warmaster</t>
+          <t>Faceless Haven</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Elvish Warmaster</t>
+          <t>Faceless Haven</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Eradicator Valkyrie</t>
+          <t>極悪な二人組</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Eradicator Valkyrie</t>
+          <t>Firja's Retribution</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Esika, God of the Tree // The Prismatic Bridge</t>
+          <t>Firja's Retribution</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Esika, God of the Tree // The Prismatic Bridge</t>
+          <t>Glorious Protector</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Esika's Chariot</t>
+          <t>Glorious Protector</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Esika's Chariot</t>
+          <t>Goldspan Dragon</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Faceless Haven</t>
+          <t>Goldspan Dragon</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Faceless Haven</t>
+          <t>Graven Lore</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>極悪な二人組</t>
+          <t>Graven Lore</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Firja's Retribution</t>
+          <t>Halvar, God of Battle // Sword of the Realms</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Firja's Retribution</t>
+          <t>Harald Unites the Elves</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Glorious Protector</t>
+          <t>Harald Unites the Elves</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Glorious Protector</t>
+          <t>Haunting Voyage</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Goldspan Dragon</t>
+          <t>Haunting Voyage</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Goldspan Dragon</t>
+          <t>Hengegate Pathway // Mistgate Pathway</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Graven Lore</t>
+          <t>Icebreaker Kraken</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Graven Lore</t>
+          <t>Icebreaker Kraken</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Halvar, God of Battle // Sword of the Realms</t>
+          <t>Immersturm Predator</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Halvar, God of Battle // Sword of the Realms</t>
+          <t>Immersturm Predator</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Harald Unites the Elves</t>
+          <t>In Search of Greatness</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Harald Unites the Elves</t>
+          <t>In Search of Greatness</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Haunting Voyage</t>
+          <t>Jorn, God of Winter // Kaldring, the Rimestaff</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Haunting Voyage</t>
+          <t>Kaya the Inexorable</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Hengegate Pathway // Mistgate Pathway</t>
+          <t>Kaya the Inexorable</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Hengegate Pathway // Mistgate Pathway</t>
+          <t>King Narfi's Betrayal</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Icebreaker Kraken</t>
+          <t>King Narfi's Betrayal</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Icebreaker Kraken</t>
+          <t>Kolvori, God of Kinship // The Ringhart Crest</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Immersturm Predator</t>
+          <t>Koma, Cosmos Serpent</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Immersturm Predator</t>
+          <t>Koma, Cosmos Serpent</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>In Search of Greatness</t>
+          <t>Magda, Brazen Outlaw</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>In Search of Greatness</t>
+          <t>Magda, Brazen Outlaw</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Jorn, God of Winter // Kaldring, the Rimestaff</t>
+          <t>Maskwood Nexus</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Jorn, God of Winter // Kaldring, the Rimestaff</t>
+          <t>Maskwood Nexus</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Kaya the Inexorable</t>
+          <t>Mystic Reflection</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Kaya the Inexorable</t>
+          <t>Mystic Reflection</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>King Narfi's Betrayal</t>
+          <t>Niko Aris</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>King Narfi's Betrayal</t>
+          <t>Niko Aris</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Kolvori, God of Kinship // The Ringhart Crest</t>
+          <t>Old-Growth Troll</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Kolvori, God of Kinship // The Ringhart Crest</t>
+          <t>Old-Growth Troll</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Koma, Cosmos Serpent</t>
+          <t>Orvar, the All-Form</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Koma, Cosmos Serpent</t>
+          <t>Orvar, the All-Form</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Magda, Brazen Outlaw</t>
+          <t>Pyre of Heroes</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Magda, Brazen Outlaw</t>
+          <t>Pyre of Heroes</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Maskwood Nexus</t>
+          <t>Quakebringer</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Maskwood Nexus</t>
+          <t>Quakebringer</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Mystic Reflection</t>
+          <t>Rally the Ranks</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Mystic Reflection</t>
+          <t>Rally the Ranks</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Niko Aris</t>
+          <t>Realmwalker</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Niko Aris</t>
+          <t>Realmwalker</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Old-Growth Troll</t>
+          <t>Reckless Crew</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Old-Growth Troll</t>
+          <t>Reckless Crew</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Orvar, the All-Form</t>
+          <t>Reflections of Littjara</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Orvar, the All-Form</t>
+          <t>Reflections of Littjara</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Pyre of Heroes</t>
+          <t>Reidane, God of the Worthy // Valkmira, Protector's Shield</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Pyre of Heroes</t>
+          <t>Resplendent Marshal</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Quakebringer</t>
+          <t>Resplendent Marshal</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Quakebringer</t>
+          <t>Righteous Valkyrie</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Rally the Ranks</t>
+          <t>Righteous Valkyrie</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Rally the Ranks</t>
+          <t>Rise of the Dread Marn</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Realmwalker</t>
+          <t>Rise of the Dread Marn</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Realmwalker</t>
+          <t>Runeforge Champion</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Reckless Crew</t>
+          <t>Runeforge Champion</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Reckless Crew</t>
+          <t>Sarulf, Realm Eater</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Reflections of Littjara</t>
+          <t>Sarulf, Realm Eater</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Reflections of Littjara</t>
+          <t>Search for Glory</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Reidane, God of the Worthy // Valkmira, Protector's Shield</t>
+          <t>Search for Glory</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Reidane, God of the Worthy // Valkmira, Protector's Shield</t>
+          <t>Showdown of the Skalds</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Resplendent Marshal</t>
+          <t>Showdown of the Skalds</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Resplendent Marshal</t>
+          <t>Sigrid, God-Favored</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Righteous Valkyrie</t>
+          <t>Sigrid, God-Favored</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Righteous Valkyrie</t>
+          <t>Skemfar Avenger</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Rise of the Dread Marn</t>
+          <t>Skemfar Avenger</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Rise of the Dread Marn</t>
+          <t>Starnheim Unleashed</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Runeforge Champion</t>
+          <t>Starnheim Unleashed</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Runeforge Champion</t>
+          <t>Tergrid, God of Fright // Tergrid's Lantern</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sarulf, Realm Eater</t>
+          <t>The Bears of Littjara</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sarulf, Realm Eater</t>
+          <t>The Bears of Littjara</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Search for Glory</t>
+          <t>The Bloodsky Massacre</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Search for Glory</t>
+          <t>The Bloodsky Massacre</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Showdown of the Skalds</t>
+          <t>The Raven's Warning</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Showdown of the Skalds</t>
+          <t>The Raven's Warning</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sigrid, God-Favored</t>
+          <t>The World Tree</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sigrid, God-Favored</t>
+          <t>The World Tree</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Skemfar Avenger</t>
+          <t>Tibalt's Trickery</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Skemfar Avenger</t>
+          <t>Tibalt's Trickery</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Starnheim Unleashed</t>
+          <t>Toralf, God of Fury // Toralf's Hammer</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Starnheim Unleashed</t>
+          <t>Toski, Bearer of Secrets</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Tergrid, God of Fright // Tergrid's Lantern</t>
+          <t>Toski, Bearer of Secrets</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Tergrid, God of Fright // Tergrid's Lantern</t>
+          <t>Tundra Fumarole</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>The Bears of Littjara</t>
+          <t>Tundra Fumarole</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>The Bears of Littjara</t>
+          <t>Tyrite Sanctum</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>The Bloodsky Massacre</t>
+          <t>Tyrite Sanctum</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The Bloodsky Massacre</t>
+          <t>Tyvar Kell</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>The Raven's Warning</t>
+          <t>Tyvar Kell</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>The Raven's Warning</t>
+          <t>Valki, God of Lies // Tibalt, Cosmic Impostor</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>The World Tree</t>
+          <t>Varragoth, Bloodsky Sire</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>The World Tree</t>
+          <t>Varragoth, Bloodsky Sire</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Tibalt's Trickery</t>
+          <t>Vorinclex, Monstrous Raider</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Tibalt's Trickery</t>
+          <t>Vorinclex, Monstrous Raider</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Toralf, God of Fury // Toralf's Hammer</t>
+          <t>Waking the Trolls</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
-        <is>
-          <t>Toralf, God of Fury // Toralf's Hammer</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Toski, Bearer of Secrets</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Toski, Bearer of Secrets</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Tundra Fumarole</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Tundra Fumarole</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Tyrite Sanctum</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Tyrite Sanctum</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Tyvar Kell</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Tyvar Kell</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Valki, God of Lies // Tibalt, Cosmic Impostor</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Valki, God of Lies // Tibalt, Cosmic Impostor</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Varragoth, Bloodsky Sire</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Varragoth, Bloodsky Sire</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Vorinclex, Monstrous Raider</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Vorinclex, Monstrous Raider</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Waking the Trolls</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
         <is>
           <t>Waking the Trolls</t>
         </is>
